--- a/data/financial_statements/socf/MOS.xlsx
+++ b/data/financial_statements/socf/MOS.xlsx
@@ -14,9 +14,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,150 +601,150 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41364</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>842000000</v>
+        <v>856200000</v>
       </c>
       <c r="C2">
-        <v>1036000000</v>
+        <v>1043800000</v>
       </c>
       <c r="D2">
-        <v>1182000000</v>
+        <v>1185700000</v>
       </c>
       <c r="E2">
-        <v>665000000</v>
+        <v>661400000</v>
       </c>
       <c r="F2">
-        <v>372000000</v>
+        <v>376500000</v>
       </c>
       <c r="G2">
         <v>438800000</v>
@@ -726,10 +843,10 @@
         <v>935700000</v>
       </c>
       <c r="AM2">
-        <v>430000000</v>
+        <v>-596500000</v>
       </c>
       <c r="AN2">
-        <v>-379900000</v>
+        <v>-1406400000</v>
       </c>
       <c r="AO2">
         <v>379900000</v>
@@ -739,8 +856,8 @@
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B3">
         <v>248800000</v>
@@ -854,7 +971,7 @@
         <v>176000000</v>
       </c>
       <c r="AM3">
-        <v>174600000</v>
+        <v>-123600000</v>
       </c>
       <c r="AO3">
         <v>164800000</v>
@@ -864,8 +981,8 @@
       </c>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B4">
         <v>92600000</v>
@@ -979,7 +1096,7 @@
         <v>100100000</v>
       </c>
       <c r="AM4">
-        <v>266100000</v>
+        <v>274700000</v>
       </c>
       <c r="AO4">
         <v>31500000</v>
@@ -989,8 +1106,8 @@
       </c>
     </row>
     <row r="5" spans="1:42">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B5">
         <v>292200000</v>
@@ -1104,7 +1221,7 @@
         <v>131700000</v>
       </c>
       <c r="AM5">
-        <v>133400000</v>
+        <v>201400000</v>
       </c>
       <c r="AO5">
         <v>-73500000</v>
@@ -1114,8 +1231,8 @@
       </c>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B6">
         <v>-224100000</v>
@@ -1229,7 +1346,7 @@
         <v>-2500000</v>
       </c>
       <c r="AM6">
-        <v>6100000</v>
+        <v>357500000</v>
       </c>
       <c r="AO6">
         <v>16700000</v>
@@ -1239,8 +1356,8 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B7">
         <v>-528700000</v>
@@ -1354,7 +1471,7 @@
         <v>-104100000</v>
       </c>
       <c r="AM7">
-        <v>-29800000</v>
+        <v>72700000</v>
       </c>
       <c r="AO7">
         <v>5200000</v>
@@ -1364,8 +1481,8 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B8">
         <v>-529000000</v>
@@ -1419,7 +1536,7 @@
         <v>-221000000</v>
       </c>
       <c r="AM8">
-        <v>20100000</v>
+        <v>397000000</v>
       </c>
       <c r="AO8">
         <v>135800000</v>
@@ -1429,8 +1546,8 @@
       </c>
     </row>
     <row r="9" spans="1:42">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B9">
         <v>132000000</v>
@@ -1544,7 +1661,7 @@
         <v>-251000000</v>
       </c>
       <c r="AM9">
-        <v>-16800000</v>
+        <v>-33800000</v>
       </c>
       <c r="AO9">
         <v>-82400000</v>
@@ -1554,8 +1671,8 @@
       </c>
     </row>
     <row r="10" spans="1:42">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10">
         <v>19800000</v>
@@ -1631,8 +1748,8 @@
       </c>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B11">
         <v>888800000</v>
@@ -1746,7 +1863,7 @@
         <v>-45000000</v>
       </c>
       <c r="AM11">
-        <v>982300000</v>
+        <v>528900000</v>
       </c>
       <c r="AO11">
         <v>579400000</v>
@@ -1756,8 +1873,8 @@
       </c>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B12">
         <v>-353700000</v>
@@ -1871,7 +1988,7 @@
         <v>-332500000</v>
       </c>
       <c r="AM12">
-        <v>-374000000</v>
+        <v>498900000</v>
       </c>
       <c r="AO12">
         <v>-367500000</v>
@@ -1881,8 +1998,8 @@
       </c>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E13">
         <v>-24100000</v>
@@ -1931,8 +2048,8 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D14">
         <v>1700000</v>
@@ -1978,8 +2095,8 @@
       </c>
     </row>
     <row r="15" spans="1:42">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B15">
         <v>-4300000</v>
@@ -2097,8 +2214,8 @@
       </c>
     </row>
     <row r="16" spans="1:42">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B16">
         <v>3400000</v>
@@ -2209,7 +2326,7 @@
         <v>1300000</v>
       </c>
       <c r="AM16">
-        <v>-600000</v>
+        <v>-7000000</v>
       </c>
       <c r="AO16">
         <v>4000000</v>
@@ -2219,8 +2336,8 @@
       </c>
     </row>
     <row r="17" spans="1:42">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B17">
         <v>-354600000</v>
@@ -2334,7 +2451,7 @@
         <v>-465700000</v>
       </c>
       <c r="AM17">
-        <v>-381400000</v>
+        <v>470100000</v>
       </c>
       <c r="AO17">
         <v>-378500000</v>
@@ -2344,8 +2461,8 @@
       </c>
     </row>
     <row r="18" spans="1:42">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B18">
         <v>-32700000</v>
@@ -2469,8 +2586,8 @@
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B19">
         <v>-601800000</v>
@@ -2537,8 +2654,8 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B20">
         <v>-68800000</v>
@@ -2652,7 +2769,7 @@
         <v>-106800000</v>
       </c>
       <c r="AM20">
-        <v>-106800000</v>
+        <v>106800000</v>
       </c>
       <c r="AO20">
         <v>-106400000</v>
@@ -2662,8 +2779,8 @@
       </c>
     </row>
     <row r="21" spans="1:42">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B21">
         <v>53799900</v>
@@ -2777,7 +2894,7 @@
         <v>-3300000</v>
       </c>
       <c r="AM21">
-        <v>2500000</v>
+        <v>9400000</v>
       </c>
       <c r="AO21">
         <v>2200000</v>
@@ -2787,8 +2904,8 @@
       </c>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B22">
         <v>-649500000</v>
@@ -2902,7 +3019,7 @@
         <v>-89500000</v>
       </c>
       <c r="AM22">
-        <v>-152300000</v>
+        <v>63900000</v>
       </c>
       <c r="AO22">
         <v>-84800000</v>
@@ -2912,8 +3029,8 @@
       </c>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B23">
         <v>-19600000</v>
@@ -3027,7 +3144,7 @@
         <v>23300000</v>
       </c>
       <c r="AM23">
-        <v>-44500000</v>
+        <v>-64400000</v>
       </c>
       <c r="AO23">
         <v>-10000000</v>
@@ -3037,8 +3154,8 @@
       </c>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B24">
         <v>-134900000</v>
@@ -3152,7 +3269,7 @@
         <v>-576900000</v>
       </c>
       <c r="AM24">
-        <v>404100000</v>
+        <v>998500000</v>
       </c>
       <c r="AO24">
         <v>106100000</v>
@@ -3162,8 +3279,8 @@
       </c>
     </row>
     <row r="25" spans="1:42">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3277,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>-405700000</v>
       </c>
       <c r="AO25">
         <v>3405300000</v>
@@ -3287,8 +3404,8 @@
       </c>
     </row>
     <row r="26" spans="1:42">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B26">
         <v>-134900000</v>
@@ -3402,7 +3519,7 @@
         <v>-576900000</v>
       </c>
       <c r="AM26">
-        <v>404100000</v>
+        <v>592800000</v>
       </c>
       <c r="AO26">
         <v>3511400000</v>
@@ -3412,8 +3529,8 @@
       </c>
     </row>
     <row r="27" spans="1:42">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B27">
         <v>6500000</v>
@@ -3527,7 +3644,7 @@
         <v>14100000</v>
       </c>
       <c r="AM27">
-        <v>2600000</v>
+        <v>-19900000</v>
       </c>
       <c r="AO27">
         <v>3000000</v>
@@ -3537,8 +3654,8 @@
       </c>
     </row>
     <row r="28" spans="1:42">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B28">
         <v>-68800000</v>
@@ -3652,10 +3769,10 @@
         <v>-320000000</v>
       </c>
       <c r="AM28">
-        <v>-106800000</v>
+        <v>106800000</v>
       </c>
       <c r="AN28">
-        <v>106400000</v>
+        <v>320000000</v>
       </c>
       <c r="AO28">
         <v>-106400000</v>
@@ -3665,23 +3782,23 @@
       </c>
     </row>
     <row r="29" spans="1:42">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B29">
-        <v>0.2079</v>
+        <v>0.2078</v>
       </c>
       <c r="C29">
-        <v>0.1845</v>
+        <v>0.1848</v>
       </c>
       <c r="D29">
         <v>0.1469</v>
       </c>
       <c r="E29">
-        <v>0.239</v>
+        <v>0.2364</v>
       </c>
       <c r="F29">
-        <v>0.2322</v>
+        <v>0.2323</v>
       </c>
       <c r="G29">
         <v>0.2513</v>
@@ -3790,8 +3907,8 @@
       </c>
     </row>
     <row r="30" spans="1:42">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B30">
         <v>-328600100</v>
@@ -3905,7 +4022,7 @@
         <v>-446900000</v>
       </c>
       <c r="AM30">
-        <v>113000000</v>
+        <v>994800000</v>
       </c>
       <c r="AO30">
         <v>1800000</v>
@@ -3915,8 +4032,8 @@
       </c>
     </row>
     <row r="31" spans="1:42">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B31">
         <v>-4300000</v>
@@ -4034,8 +4151,8 @@
       </c>
     </row>
     <row r="32" spans="1:42">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B32">
         <v>-601800000</v>
@@ -4102,8 +4219,8 @@
       </c>
     </row>
     <row r="33" spans="1:42">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B33">
         <v>-601800000</v>
